--- a/data_year/zb/公共管理、社会保障及其他/失业保险.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/失业保险.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,463 +463,281 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10408.4</v>
+        <v>13375.595</v>
       </c>
       <c r="C2" t="n">
-        <v>123.4324</v>
+        <v>423.2571175699999</v>
       </c>
       <c r="D2" t="n">
-        <v>160.4436</v>
+        <v>649.7770272099999</v>
       </c>
       <c r="E2" t="n">
-        <v>195.9333</v>
+        <v>1749.79740058</v>
       </c>
       <c r="F2" t="n">
-        <v>190</v>
+        <v>209.1019</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10354.6</v>
+        <v>14317.0725</v>
       </c>
       <c r="C3" t="n">
-        <v>156.5684</v>
+        <v>432.77</v>
       </c>
       <c r="D3" t="n">
-        <v>187.324</v>
+        <v>923.0700000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>226.2089</v>
+        <v>2240.21</v>
       </c>
       <c r="F3" t="n">
-        <v>312.4789</v>
+        <v>196.9765</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10181.6</v>
+        <v>15224.714</v>
       </c>
       <c r="C4" t="n">
-        <v>186.6</v>
+        <v>450.5755310939</v>
       </c>
       <c r="D4" t="n">
-        <v>215.6</v>
+        <v>1138.9204666247</v>
       </c>
       <c r="E4" t="n">
-        <v>253.8418</v>
+        <v>2929.0352921912</v>
       </c>
       <c r="F4" t="n">
-        <v>439.8318</v>
+        <v>204.026</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10372.9</v>
+        <v>16416.833</v>
       </c>
       <c r="C5" t="n">
-        <v>199.8</v>
+        <v>531.6451588441</v>
       </c>
       <c r="D5" t="n">
-        <v>249.5</v>
+        <v>1288.9007453167</v>
       </c>
       <c r="E5" t="n">
-        <v>303.5</v>
+        <v>3685.8605047941</v>
       </c>
       <c r="F5" t="n">
-        <v>414.9224</v>
+        <v>197.049</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10583.9</v>
+        <v>17042.574</v>
       </c>
       <c r="C6" t="n">
-        <v>211.3</v>
+        <v>614.74194347</v>
       </c>
       <c r="D6" t="n">
-        <v>290.8</v>
+        <v>1379.7918988399</v>
       </c>
       <c r="E6" t="n">
-        <v>385.8</v>
+        <v>4451.4826597179</v>
       </c>
       <c r="F6" t="n">
-        <v>418.6378</v>
+        <v>207.156</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10647.6656</v>
+        <v>17325.987</v>
       </c>
       <c r="C7" t="n">
-        <v>206.9</v>
+        <v>736.394295464</v>
       </c>
       <c r="D7" t="n">
-        <v>340.3</v>
+        <v>1367.7914800752</v>
       </c>
       <c r="E7" t="n">
-        <v>519</v>
+        <v>5082.9691572599</v>
       </c>
       <c r="F7" t="n">
-        <v>362.3416</v>
+        <v>226.753</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11186.6</v>
+        <v>18088.836</v>
       </c>
       <c r="C8" t="n">
-        <v>198.0092943121</v>
+        <v>976.117299993</v>
       </c>
       <c r="D8" t="n">
-        <v>402.4</v>
+        <v>1228.911084048</v>
       </c>
       <c r="E8" t="n">
-        <v>724.8368109858</v>
+        <v>5333.3322482221</v>
       </c>
       <c r="F8" t="n">
-        <v>326.5464</v>
+        <v>230.372</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11644.6</v>
+        <v>18784.1767</v>
       </c>
       <c r="C9" t="n">
-        <v>217.7</v>
+        <v>893.7564897251</v>
       </c>
       <c r="D9" t="n">
-        <v>471.7</v>
+        <v>1112.62775836</v>
       </c>
       <c r="E9" t="n">
-        <v>979.1</v>
+        <v>5552.3720849191</v>
       </c>
       <c r="F9" t="n">
-        <v>286.0834</v>
+        <v>220.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12399.8484</v>
+        <v>19643.454</v>
       </c>
       <c r="C10" t="n">
-        <v>253.4633501779</v>
+        <v>915.3</v>
       </c>
       <c r="D10" t="n">
-        <v>585.1224649309</v>
+        <v>1171.1</v>
       </c>
       <c r="E10" t="n">
-        <v>1310.1389234573</v>
+        <v>5817</v>
       </c>
       <c r="F10" t="n">
-        <v>261.2236</v>
+        <v>223.091</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12715.4688</v>
+        <v>20542.6638</v>
       </c>
       <c r="C11" t="n">
-        <v>366.7863449101</v>
+        <v>1333.1621</v>
       </c>
       <c r="D11" t="n">
-        <v>580.3817803239</v>
+        <v>1284.2333</v>
       </c>
       <c r="E11" t="n">
-        <v>1523.612465071</v>
+        <v>4625.3715</v>
       </c>
       <c r="F11" t="n">
-        <v>235.2668</v>
+        <v>228.3022</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13375.595</v>
+        <v>21689.4756</v>
       </c>
       <c r="C12" t="n">
-        <v>423.2571175699999</v>
+        <v>2103.0054</v>
       </c>
       <c r="D12" t="n">
-        <v>649.7770272099999</v>
+        <v>951.5333000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>1749.79740058</v>
+        <v>3354.1306</v>
       </c>
       <c r="F12" t="n">
-        <v>209.1019</v>
+        <v>269.9994</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14317.0725</v>
+        <v>22957.9281</v>
       </c>
       <c r="C13" t="n">
-        <v>432.77</v>
+        <v>1500.0319</v>
       </c>
       <c r="D13" t="n">
-        <v>923.0700000000001</v>
+        <v>1459.5954</v>
       </c>
       <c r="E13" t="n">
-        <v>2240.21</v>
+        <v>3312.5261</v>
       </c>
       <c r="F13" t="n">
-        <v>196.9765</v>
+        <v>258.7534</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15224.714</v>
-      </c>
-      <c r="C14" t="n">
-        <v>450.5755310939</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1138.9204666247</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2929.0352921912</v>
-      </c>
+        <v>23807</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>204.026</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>16416.833</v>
-      </c>
-      <c r="C15" t="n">
-        <v>531.6451588441</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1288.9007453167</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3685.8605047941</v>
-      </c>
-      <c r="F15" t="n">
-        <v>197.049</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>17042.574</v>
-      </c>
-      <c r="C16" t="n">
-        <v>614.74194347</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1379.7918988399</v>
-      </c>
-      <c r="E16" t="n">
-        <v>4451.4826597179</v>
-      </c>
-      <c r="F16" t="n">
-        <v>207.156</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>17325.987</v>
-      </c>
-      <c r="C17" t="n">
-        <v>736.394295464</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1367.7914800752</v>
-      </c>
-      <c r="E17" t="n">
-        <v>5082.9691572599</v>
-      </c>
-      <c r="F17" t="n">
-        <v>226.753</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>18088.836</v>
-      </c>
-      <c r="C18" t="n">
-        <v>976.117299993</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1228.911084048</v>
-      </c>
-      <c r="E18" t="n">
-        <v>5333.3322482221</v>
-      </c>
-      <c r="F18" t="n">
-        <v>230.372</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>18784.1767</v>
-      </c>
-      <c r="C19" t="n">
-        <v>893.7564897251</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1112.62775836</v>
-      </c>
-      <c r="E19" t="n">
-        <v>5552.3720849191</v>
-      </c>
-      <c r="F19" t="n">
-        <v>220.2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>19643.454</v>
-      </c>
-      <c r="C20" t="n">
-        <v>915.3</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1171.1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>5817</v>
-      </c>
-      <c r="F20" t="n">
-        <v>223.091</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>20542.6638</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1333.1621</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1284.2333</v>
-      </c>
-      <c r="E21" t="n">
-        <v>4625.3715</v>
-      </c>
-      <c r="F21" t="n">
-        <v>228.3022</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>21689.4756</v>
-      </c>
-      <c r="C22" t="n">
-        <v>2103.0054</v>
-      </c>
-      <c r="D22" t="n">
-        <v>951.5333000000001</v>
-      </c>
-      <c r="E22" t="n">
-        <v>3354.1306</v>
-      </c>
-      <c r="F22" t="n">
-        <v>269.9994</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
